--- a/Base_score.xlsx
+++ b/Base_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -109,25 +109,19 @@
     <t>COCINERO</t>
   </si>
   <si>
-    <t>Servicio de Salud Bío-bío</t>
+    <t>HEDERRA DUPLAQUET, LUZ MARIA</t>
+  </si>
+  <si>
+    <t>DIRECTOR DEL PROGRAMA LABORATORIO DE GOBIERNO</t>
+  </si>
+  <si>
+    <t>Lopez Gonzalez, Jorge Marcelo</t>
+  </si>
+  <si>
+    <t>TECNICO ADUANA METROPOLITANA</t>
   </si>
   <si>
     <t>BioBío</t>
-  </si>
-  <si>
-    <t>HEDERRA DUPLAQUET, LUZ MARIA</t>
-  </si>
-  <si>
-    <t>DIRECTOR DEL PROGRAMA LABORATORIO DE GOBIERNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junta Nacional de Auxilio Escolar y Becas </t>
-  </si>
-  <si>
-    <t>Lopez Gonzalez, Jorge Marcelo</t>
-  </si>
-  <si>
-    <t>TECNICO ADUANA METROPOLITANA</t>
   </si>
   <si>
     <t>PELLEGRINI PINTO, MARIA PAOLA</t>
@@ -202,7 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -576,7 +570,7 @@
     <col min="12" max="12" style="4" width="10.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -652,7 +646,7 @@
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <f>A2+1</f>
       </c>
@@ -690,7 +684,7 @@
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <f>A3+1</f>
       </c>
@@ -728,7 +722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <f>A4+1</f>
       </c>
@@ -766,7 +760,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <f>A5+1</f>
       </c>
@@ -804,7 +798,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <f>A6+1</f>
       </c>
@@ -815,13 +809,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>600</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>202212</v>
@@ -839,27 +833,27 @@
         <v>3</v>
       </c>
       <c r="L7" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>500</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <f>A7+1</f>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>800</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
         <v>202212</v>
@@ -880,15 +874,15 @@
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <f>A8+1</f>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
@@ -897,7 +891,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1">
         <v>202212</v>
@@ -918,24 +912,24 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <f>A9+1</f>
       </c>
       <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>300</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>202212</v>
@@ -956,24 +950,24 @@
         <v>770</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <f>A10+1</f>
       </c>
       <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>900</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1">
         <v>202212</v>
@@ -994,24 +988,24 @@
         <v>680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <f>A11+1</f>
       </c>
       <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1">
         <v>202212</v>
@@ -1032,7 +1026,7 @@
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <f>A12+1</f>
       </c>
@@ -1040,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -1049,7 +1043,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
         <v>202212</v>
@@ -1070,24 +1064,24 @@
         <v>362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <f>A13+1</f>
       </c>
       <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="1">
         <v>500</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1">
         <v>202212</v>
@@ -1108,24 +1102,24 @@
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <f>A14+1</f>
       </c>
       <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1">
         <v>202212</v>
@@ -1146,15 +1140,15 @@
         <v>475</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <f>A15+1</f>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -1163,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1">
         <v>202212</v>
